--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4659,4 +4660,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5539</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6122,4 +6123,1808 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1951</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5635</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0830</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8440</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6891</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0559</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7927,4 +7928,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7936,7 +7937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7947,17 +7948,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7967,14 +7988,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.56</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7983,14 +8026,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.67</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7999,14 +8064,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.88</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8015,13 +8102,2127 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4745</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7725</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7065</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>46</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10121,7 +10122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10132,17 +10133,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10152,14 +10173,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.32</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10168,14 +10211,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.56</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>129.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10184,14 +10249,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.67</v>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -10200,14 +10287,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.88</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -10216,13 +10325,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1670</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5196</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1453</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6525</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>46</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11584,7 +11585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11595,17 +11596,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11615,14 +11636,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.43</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>135.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11631,14 +11674,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.32</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11647,14 +11712,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.56</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -11663,14 +11750,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.67</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -11679,14 +11788,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.88</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -11695,13 +11826,2993 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6775</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4538</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3672</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3672</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3293</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2586</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0980</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0772</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0085</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>46</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>54.79</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>38.43</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>48.32</v>
+        <v>38.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>51.56</v>
+        <v>48.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>33.67</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>34.88</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>46</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.17</v>
       </c>
     </row>
@@ -600,6 +617,3668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6201</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0923</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8550</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6677</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +7372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5155,7 +8834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7339,7 +11018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9143,7 +12822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10605,7 +14284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13017,7 +16696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/601021-春秋航空.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>44.92</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>54.79</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>38.43</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>48.32</v>
+        <v>38.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>51.56</v>
+        <v>48.32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>33.67</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>34.88</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1834 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>46</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2438,4460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>126.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0698</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9222</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8335</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5911</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5861</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2507</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1554</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9172</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8162</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5747</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010081</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010082</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4278,7 +10553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7372,7 +13647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8834,7 +15109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11018,7 +17293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12822,7 +19097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14284,7 +20559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16694,1808 +22969,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8331</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧瑞丰灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.9154</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168103</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰锐益定增灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2557</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9181</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1355</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6549</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4990</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005612</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实核心优势股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4207</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3747</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3709</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3545</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005305</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信合利混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>33.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2772</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2760</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2550</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2310</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004608</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2214</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501051</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>圆信永丰汇利混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1810</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1690</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1587</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1551</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>168101</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰锐智事件驱动混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1107</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1080</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1054</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004609</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0942</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0849</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004740</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中欧瑞丰灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>210007</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0449</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003598</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007509</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005306</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长信合利混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>33.21</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009634</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20.77</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002196</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009635</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.77</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>